--- a/data/Hijuelas.xlsx
+++ b/data/Hijuelas.xlsx
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">

--- a/data/Hijuelas.xlsx
+++ b/data/Hijuelas.xlsx
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">

--- a/data/Hijuelas.xlsx
+++ b/data/Hijuelas.xlsx
@@ -7879,7 +7879,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F157" t="n">

--- a/data/Hijuelas.xlsx
+++ b/data/Hijuelas.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J239"/>
+  <dimension ref="A1:J240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Suministro de Agua Zona Centro</t>
+          <t>Declaracion Impacto Ambiental \" Planta de Hormigon VEMIX</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AES Gener S.A</t>
+          <t>Planta de Hormigon VEMIX</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>280000</v>
+        <v>33132</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/09/2020</t>
+          <t>12/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148224134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156945390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>02/09/2020</t>
+          <t>11/09/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148032973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148224134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transporte de Cal Viva en Silos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
+          <t>Suministro de Agua Zona Centro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cordova Ltda</t>
+          <t>AES Gener S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4500</v>
+        <v>280000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03/03/2020</t>
+          <t>02/09/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148032973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Cal Viva en Semirremolques Silos Herméticos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
+          <t>Transporte de Cal Viva en Silos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>03/03/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145573203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Transporte Terrestre de Cal Viva en Semirremolques Silos Herméticos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Sociedad de Transportes Cordova Ltda</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>19/02/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145573203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Ocoa 2</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Ocoa II SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/06/2018</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140774723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Planta Solar Fotovoltaica Ocoa 2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Parque Fotovoltaico Ocoa II SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>6000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/06/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140774723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,21 +827,21 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS EN EL SECTOR PETORQUITA DEL RIO ACONCAGUA</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TRANSPORTES ZAMORA VÁSQUEZ Y COMPAÑÍA LIMITADA (TRAMAC LTDA)</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/09/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131495920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>EXTRACCIÓN DE ÁRIDOS EN EL SECTOR PETORQUITA DEL RIO ACONCAGUA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>TRANSPORTES ZAMORA VÁSQUEZ Y COMPAÑÍA LIMITADA (TRAMAC LTDA)</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/09/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131495920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS EN EL SECTOR PETORQUITA DEL RIO ACONCAGUA</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TRANSPORTES ZAMORA VÁSQUEZ Y COMPAÑÍA LIMITADA (TRAMAC LTDA)</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>26/10/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130790450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>17/08/2015</t>
+          <t>26/10/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130790450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/07/2015</t>
+          <t>17/08/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130636819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/06/2015</t>
+          <t>23/07/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130491452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130636819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>EXTRACCIÓN DE ÁRIDOS EN EL SECTOR PETORQUITA DEL RIO ACONCAGUA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>TRANSPORTES ZAMORA VÁSQUEZ Y COMPAÑÍA LIMITADA (TRAMAC LTDA)</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>22/06/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130491452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2050</v>
+        <v>12500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,12 +2680,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EXPANSIÓN ANDINA 244 .</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Corporación Nacional del Cobre, División Andina</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6.8</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04/01/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>EXPANSIÓN ANDINA 244 .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Corporación Nacional del Cobre, División Andina</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>15000</v>
+        <v>6.8</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>04/01/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>706</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial EcoMetales Limited</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>28/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6928702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial EcoMetales Limited</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>28/05/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6928702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE COMPONENTES PARA RECICLAJE</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Procesadora de Residuos Industriales Ltda. Recimat Ltda.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>05/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6533864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE DE COMPONENTES PARA RECICLAJE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Procesadora de Residuos Industriales Ltda. Recimat Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>05/04/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6533864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Harina y Aceite de Pavos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SEPHYA LTDA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1070</v>
+        <v>100</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6454119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Elaboración de Harina y Aceite de Pavos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SEPHYA LTDA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>1070</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>09/01/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6454119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>30/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Cal Viva"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>30/05/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11/05/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>06/05/2011</t>
+          <t>11/05/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5593037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>06/05/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5593037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>11/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>11/04/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4187,11 +4187,11 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>75000</v>
+        <v>4800</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>19000</v>
+        <v>75000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Hurcam Spa.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>19/11/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
+          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4379,21 +4379,21 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>05/11/2010</t>
+          <t>19/11/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Hurcam Spa.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>05/11/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>17700</v>
+        <v>230</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4800</v>
+        <v>17700</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>223</v>
+        <v>4800</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SOTRASER S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SOTRASER S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1750</v>
+        <v>85</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>16/06/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>1750</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2000</v>
+        <v>4050</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5727,17 +5727,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>20/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>20/08/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2000</v>
+        <v>22</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV NOGALES POLPAICO (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>53200</v>
+        <v>2000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>09/01/2009</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3482642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6639,17 +6639,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>31/12/2008</t>
+          <t>09/01/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3461087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3482642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV NOGALES POLPAICO (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2000</v>
+        <v>53200</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>09/12/2008</t>
+          <t>31/12/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3461087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>09/12/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6783,17 +6783,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>139</v>
+        <v>1750</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,15 +7351,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,15 +7543,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7647,17 +7647,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,15 +7687,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,15 +7735,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,25 +7879,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1500</v>
+        <v>20</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>04/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,25 +7927,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>04/04/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,25 +7975,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>860</v>
+        <v>429</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,15 +8359,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,25 +8407,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,25 +8455,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>950</v>
+        <v>80</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>24/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,25 +8503,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>24/05/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8559,17 +8559,17 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,25 +8599,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,25 +8647,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,15 +8695,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8751,17 +8751,17 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,25 +8791,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,25 +8839,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,25 +8887,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,25 +8935,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,25 +8983,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,15 +9031,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,15 +9079,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,25 +9127,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,15 +9175,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,25 +9223,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>860</v>
+        <v>138</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9279,17 +9279,17 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,25 +9319,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9375,17 +9375,17 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,25 +9415,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,30 +9458,30 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,30 +9506,30 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,25 +9559,25 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Diagnóstico Ambiental Modificación del Plan Regulador Intercomunal de Valparaíso Satélite Quillota (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,12 +9602,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9615,17 +9615,17 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>30/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Estación de Servicio COPEC RUTA 5 Norte kilómetro 103,15 (e-seia)</t>
+          <t>Diagnóstico Ambiental Modificación del Plan Regulador Intercomunal de Valparaíso Satélite Quillota (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,15 +9655,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>23/01/2006</t>
+          <t>30/01/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1230981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE MATERIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Estación de Servicio COPEC RUTA 5 Norte kilómetro 103,15 (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,20 +9698,20 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>RAMON ROJAS MARTINEZ</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>143</v>
+        <v>2200</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>12/01/2006</t>
+          <t>23/01/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1216507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1230981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE MATERIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,15 +9751,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>RAMON ROJAS MARTINEZ</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>12/01/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1216507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -9807,17 +9807,17 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,30 +9842,30 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,12 +9890,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9903,17 +9903,17 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,15 +9943,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,15 +9991,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,25 +10039,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>03/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10095,17 +10095,17 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>03/11/2005</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,15 +10135,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,15 +10183,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,15 +10279,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10331,11 +10331,11 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,15 +10375,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,15 +10423,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -10479,17 +10479,17 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,15 +10519,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,25 +10567,25 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>TRANSCARGO Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>AGROINDUSTRIA LAFKEN S.A (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,30 +10610,30 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Agroindustria Lafken S.A.</t>
+          <t>TRANSCARGO Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>22/11/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=476942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>AGROINDUSTRIA LAFKEN S.A (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,30 +10658,30 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Agroindustria Lafken S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>22/11/2004</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=476942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,15 +10711,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Agroindustrias Lafken S.A. (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,30 +10754,30 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Agroindustria Lafken S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>11/06/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=374890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Peligrosas de uso en la Gran Minería entre las regiones I y Región Metropolitana (e-seia)</t>
+          <t>Agroindustrias Lafken S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,30 +10802,30 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>LOGISTICA INTEGRAL S.A.</t>
+          <t>Agroindustria Lafken S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>05/05/2004</t>
+          <t>11/06/2004</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=317950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=374890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Terrestre de Sustancias Peligrosas de uso en la Gran Minería entre las regiones I y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,25 +10855,25 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>LOGISTICA INTEGRAL S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>05/05/2004</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=317950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL, SISTEMA DE TRATAMEINTO DE RILES, CONSERVAS CENTAURO PLANTA HIJUELAS (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,30 +10898,30 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Bozzolo Hnos &amp; Cia Ltda</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>12/12/2003</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=207797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles, Conservas Centauro, Planta Hijuelas. (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL, SISTEMA DE TRATAMEINTO DE RILES, CONSERVAS CENTAURO PLANTA HIJUELAS (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,21 +10955,21 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>06/11/2003</t>
+          <t>12/12/2003</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=188614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=207797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles, Conservas Centauro, Planta Hijuelas. (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,12 +10994,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Bozzolo Hnos &amp; Cia Ltda</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11007,17 +11007,17 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>06/11/2003</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=188614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,15 +11047,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,15 +11095,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,25 +11143,25 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11199,17 +11199,17 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>04/11/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Peróxido de Hidrógeno (agua oxigenada)</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,15 +11239,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>SUN S.A.</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>04/11/2002</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Transporte de Peróxido de Hidrógeno (agua oxigenada)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,15 +11287,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>SUN S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11343,7 +11343,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,25 +11383,25 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,12 +11416,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -11431,25 +11431,25 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1230</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,30 +11464,30 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro Turístico Valle Romeral Lote A-C de la Parcelación Los Corrales de Purehue Sector Purehue Romeral</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Caniguante Galvez</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>1230</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>18/12/2000</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Centro Turístico Valle Romeral Lote A-C de la Parcelación Los Corrales de Purehue Sector Purehue Romeral</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,30 +11522,30 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Caniguante Galvez</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>28/11/2000</t>
+          <t>18/12/2000</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,12 +11560,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -11575,25 +11575,25 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>28/11/2000</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,12 +11608,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Mejoramiento Línea de Transmisión (110KV) San Pedro- Cerro Navia</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -11623,15 +11623,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Compañia Transmisora del Norte Grande S.A</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Mejoramiento Línea de Transmisión (110KV) San Pedro- Cerro Navia</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,15 +11671,15 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Compañia Transmisora del Norte Grande S.A</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>110</v>
+        <v>10000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Proyecto Turístico Recreativo Hacienda Palmas de Ocoa</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,20 +11714,20 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Mario Arturo Eugenin García</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>27/07/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Proyecto Turístico Recreativo Hacienda Palmas de Ocoa</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,20 +11762,20 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Mario Arturo Eugenin García</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>2500</v>
+        <v>310</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>27/07/1999</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,43 +11800,91 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Hijuelas</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
           <t>Línea de Transmisión Eléctrica San Isidro - Los Piuquenes</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
         <is>
           <t>MLP Transmisión S.A.</t>
         </is>
       </c>
-      <c r="F239" t="n">
+      <c r="F240" t="n">
         <v>24800</v>
       </c>
-      <c r="G239" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>03/10/1997</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
+      <c r="H240" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I239" t="inlineStr">
+      <c r="I240" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=20&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J239" t="inlineStr">
+      <c r="J240" t="inlineStr">
         <is>
           <t>Hijuelas</t>
         </is>

--- a/data/Hijuelas.xlsx
+++ b/data/Hijuelas.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Hijuelas.xlsx
+++ b/data/Hijuelas.xlsx
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">

--- a/data/Hijuelas.xlsx
+++ b/data/Hijuelas.xlsx
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">

--- a/data/Hijuelas.xlsx
+++ b/data/Hijuelas.xlsx
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">

--- a/data/Hijuelas.xlsx
+++ b/data/Hijuelas.xlsx
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F132" t="n">

--- a/data/Hijuelas.xlsx
+++ b/data/Hijuelas.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J240"/>
+  <dimension ref="A1:J241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Declaracion Impacto Ambiental \" Planta de Hormigon VEMIX</t>
+          <t>Adecuaciones y Mejoras del Complejo Termoeléctrico Nehuenco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Planta de Hormigon VEMIX</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>33132</v>
+        <v>17500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/09/2022</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156945390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160738396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,30 +472,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Suministro de Agua Zona Centro</t>
+          <t>Declaracion Impacto Ambiental \" Planta de Hormigon VEMIX</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AES Gener S.A</t>
+          <t>Planta de Hormigon VEMIX</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>280000</v>
+        <v>33132</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11/09/2020</t>
+          <t>12/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148224134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156945390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>02/09/2020</t>
+          <t>11/09/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148032973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148224134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte de Cal Viva en Silos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
+          <t>Suministro de Agua Zona Centro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cordova Ltda</t>
+          <t>AES Gener S.A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4500</v>
+        <v>280000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03/03/2020</t>
+          <t>02/09/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148032973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Cal Viva en Semirremolques Silos Herméticos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
+          <t>Transporte de Cal Viva en Silos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>03/03/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145573203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Transporte Terrestre de Cal Viva en Semirremolques Silos Herméticos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Sociedad de Transportes Cordova Ltda</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>19/02/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145573203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Ocoa 2</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Ocoa II SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/06/2018</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140774723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Planta Solar Fotovoltaica Ocoa 2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Parque Fotovoltaico Ocoa II SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>6000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/06/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140774723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,21 +875,21 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS EN EL SECTOR PETORQUITA DEL RIO ACONCAGUA</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TRANSPORTES ZAMORA VÁSQUEZ Y COMPAÑÍA LIMITADA (TRAMAC LTDA)</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/09/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131495920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>EXTRACCIÓN DE ÁRIDOS EN EL SECTOR PETORQUITA DEL RIO ACONCAGUA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>TRANSPORTES ZAMORA VÁSQUEZ Y COMPAÑÍA LIMITADA (TRAMAC LTDA)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/09/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131495920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS EN EL SECTOR PETORQUITA DEL RIO ACONCAGUA</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TRANSPORTES ZAMORA VÁSQUEZ Y COMPAÑÍA LIMITADA (TRAMAC LTDA)</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>26/10/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130790450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>17/08/2015</t>
+          <t>26/10/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130790450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/07/2015</t>
+          <t>17/08/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130636819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/06/2015</t>
+          <t>23/07/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130491452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130636819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>EXTRACCIÓN DE ÁRIDOS EN EL SECTOR PETORQUITA DEL RIO ACONCAGUA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>TRANSPORTES ZAMORA VÁSQUEZ Y COMPAÑÍA LIMITADA (TRAMAC LTDA)</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>22/06/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130491452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2050</v>
+        <v>12500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EXPANSIÓN ANDINA 244 .</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Corporación Nacional del Cobre, División Andina</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6.8</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/01/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>EXPANSIÓN ANDINA 244 .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Corporación Nacional del Cobre, División Andina</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>15000</v>
+        <v>6.8</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>04/01/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>706</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial EcoMetales Limited</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>28/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6928702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial EcoMetales Limited</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>28/05/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6928702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE COMPONENTES PARA RECICLAJE</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Procesadora de Residuos Industriales Ltda. Recimat Ltda.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>05/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6533864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE DE COMPONENTES PARA RECICLAJE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Procesadora de Residuos Industriales Ltda. Recimat Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>05/04/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6533864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Harina y Aceite de Pavos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SEPHYA LTDA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1070</v>
+        <v>100</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6454119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Elaboración de Harina y Aceite de Pavos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SEPHYA LTDA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1000</v>
+        <v>1070</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>09/01/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6454119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>30/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Cal Viva"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>30/05/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>11/05/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>06/05/2011</t>
+          <t>11/05/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5593037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>06/05/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5593037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>11/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>11/04/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4235,11 +4235,11 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>75000</v>
+        <v>4800</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>19000</v>
+        <v>75000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Hurcam Spa.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>19/11/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
+          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4427,21 +4427,21 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>05/11/2010</t>
+          <t>19/11/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Hurcam Spa.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>05/11/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>17700</v>
+        <v>230</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>563</v>
+        <v>17700</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>223</v>
+        <v>563</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SOTRASER S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SOTRASER S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>16/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1750</v>
+        <v>85</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>16/06/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>1750</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2000</v>
+        <v>4050</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5775,17 +5775,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>20/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>20/08/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2000</v>
+        <v>22</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV NOGALES POLPAICO (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>53200</v>
+        <v>2000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>09/01/2009</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3482642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6687,17 +6687,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>31/12/2008</t>
+          <t>09/01/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3461087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3482642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV NOGALES POLPAICO (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2000</v>
+        <v>53200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>09/12/2008</t>
+          <t>31/12/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3461087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>09/12/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6831,17 +6831,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,15 +6871,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,25 +7063,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,25 +7207,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>139</v>
+        <v>1750</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7695,17 +7695,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,15 +7735,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,25 +7879,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,25 +7927,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1500</v>
+        <v>20</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>04/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,25 +7975,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>04/04/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,25 +8119,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,15 +8215,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>860</v>
+        <v>429</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,25 +8359,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,15 +8407,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,25 +8455,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,25 +8503,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>950</v>
+        <v>80</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>24/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,25 +8551,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>24/05/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8607,17 +8607,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,25 +8647,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,25 +8695,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,15 +8743,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8799,17 +8799,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,25 +8839,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,25 +8887,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,25 +8935,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,25 +8983,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,25 +9031,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,15 +9079,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,15 +9127,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,25 +9175,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,15 +9223,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,25 +9271,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>860</v>
+        <v>138</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9327,17 +9327,17 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,25 +9367,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9423,17 +9423,17 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,25 +9463,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,30 +9506,30 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,30 +9554,30 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,25 +9607,25 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Diagnóstico Ambiental Modificación del Plan Regulador Intercomunal de Valparaíso Satélite Quillota (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,12 +9650,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -9663,17 +9663,17 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>30/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Estación de Servicio COPEC RUTA 5 Norte kilómetro 103,15 (e-seia)</t>
+          <t>Diagnóstico Ambiental Modificación del Plan Regulador Intercomunal de Valparaíso Satélite Quillota (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,15 +9703,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>23/01/2006</t>
+          <t>30/01/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1230981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE MATERIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Estación de Servicio COPEC RUTA 5 Norte kilómetro 103,15 (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,20 +9746,20 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>RAMON ROJAS MARTINEZ</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>143</v>
+        <v>2200</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>12/01/2006</t>
+          <t>23/01/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1216507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1230981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE MATERIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,15 +9799,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>RAMON ROJAS MARTINEZ</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>12/01/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1216507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9855,17 +9855,17 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,30 +9890,30 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,12 +9938,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9951,17 +9951,17 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,15 +9991,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,15 +10039,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,25 +10087,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>03/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -10143,17 +10143,17 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>03/11/2005</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,15 +10183,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,15 +10231,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,15 +10327,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10379,11 +10379,11 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,15 +10423,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,15 +10471,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -10527,17 +10527,17 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,15 +10567,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,25 +10615,25 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TRANSCARGO Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>AGROINDUSTRIA LAFKEN S.A (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,30 +10658,30 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Agroindustria Lafken S.A.</t>
+          <t>TRANSCARGO Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>22/11/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=476942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>AGROINDUSTRIA LAFKEN S.A (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,30 +10706,30 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Agroindustria Lafken S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>22/11/2004</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=476942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,15 +10759,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Agroindustrias Lafken S.A. (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,30 +10802,30 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Agroindustria Lafken S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>11/06/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=374890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Peligrosas de uso en la Gran Minería entre las regiones I y Región Metropolitana (e-seia)</t>
+          <t>Agroindustrias Lafken S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,30 +10850,30 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>LOGISTICA INTEGRAL S.A.</t>
+          <t>Agroindustria Lafken S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>05/05/2004</t>
+          <t>11/06/2004</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=317950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=374890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Terrestre de Sustancias Peligrosas de uso en la Gran Minería entre las regiones I y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,25 +10903,25 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>LOGISTICA INTEGRAL S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>05/05/2004</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=317950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL, SISTEMA DE TRATAMEINTO DE RILES, CONSERVAS CENTAURO PLANTA HIJUELAS (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,30 +10946,30 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Bozzolo Hnos &amp; Cia Ltda</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>12/12/2003</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=207797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles, Conservas Centauro, Planta Hijuelas. (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL, SISTEMA DE TRATAMEINTO DE RILES, CONSERVAS CENTAURO PLANTA HIJUELAS (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11003,21 +11003,21 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>06/11/2003</t>
+          <t>12/12/2003</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=188614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=207797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles, Conservas Centauro, Planta Hijuelas. (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,12 +11042,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Bozzolo Hnos &amp; Cia Ltda</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11055,17 +11055,17 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>06/11/2003</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=188614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,15 +11095,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,15 +11143,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,25 +11191,25 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11247,17 +11247,17 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>04/11/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Peróxido de Hidrógeno (agua oxigenada)</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,15 +11287,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SUN S.A.</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>04/11/2002</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Transporte de Peróxido de Hidrógeno (agua oxigenada)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,15 +11335,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>SUN S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,25 +11431,25 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,12 +11464,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -11479,25 +11479,25 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1230</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,30 +11512,30 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro Turístico Valle Romeral Lote A-C de la Parcelación Los Corrales de Purehue Sector Purehue Romeral</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Caniguante Galvez</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>200</v>
+        <v>1230</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>18/12/2000</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Centro Turístico Valle Romeral Lote A-C de la Parcelación Los Corrales de Purehue Sector Purehue Romeral</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,30 +11570,30 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Caniguante Galvez</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>28/11/2000</t>
+          <t>18/12/2000</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,12 +11608,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -11623,25 +11623,25 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>28/11/2000</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,12 +11656,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Mejoramiento Línea de Transmisión (110KV) San Pedro- Cerro Navia</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -11671,15 +11671,15 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Compañia Transmisora del Norte Grande S.A</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Mejoramiento Línea de Transmisión (110KV) San Pedro- Cerro Navia</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,15 +11719,15 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Compañia Transmisora del Norte Grande S.A</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>110</v>
+        <v>10000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Proyecto Turístico Recreativo Hacienda Palmas de Ocoa</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,20 +11762,20 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Mario Arturo Eugenin García</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>27/07/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Proyecto Turístico Recreativo Hacienda Palmas de Ocoa</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,20 +11810,20 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Mario Arturo Eugenin García</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>2500</v>
+        <v>310</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>27/07/1999</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,43 +11848,91 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Hijuelas</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
           <t>Línea de Transmisión Eléctrica San Isidro - Los Piuquenes</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
         <is>
           <t>MLP Transmisión S.A.</t>
         </is>
       </c>
-      <c r="F240" t="n">
+      <c r="F241" t="n">
         <v>24800</v>
       </c>
-      <c r="G240" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>03/10/1997</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
+      <c r="H241" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I240" t="inlineStr">
+      <c r="I241" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=20&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J240" t="inlineStr">
+      <c r="J241" t="inlineStr">
         <is>
           <t>Hijuelas</t>
         </is>

--- a/data/Hijuelas.xlsx
+++ b/data/Hijuelas.xlsx
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">

--- a/data/Hijuelas.xlsx
+++ b/data/Hijuelas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>19/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Hijuelas.xlsx
+++ b/data/Hijuelas.xlsx
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
